--- a/BalanceSheet/IBM_balance.xlsx
+++ b/BalanceSheet/IBM_balance.xlsx
@@ -377,7 +377,7 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>16067000000.0</v>
+        <v>16589000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>19186000000.0</v>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2647000000.0</v>
+        <v>2125000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1758000000.0</v>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2125000000.0</v>
+        <v>71000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>377000000.0</v>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>14484000000.0</v>
+        <v>14414000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>13647000000.0</v>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>25867000000.0</v>
+        <v>23227000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>23120000000.0</v>
